--- a/Notificações de Multas - Detalhamento.xlsx
+++ b/Notificações de Multas - Detalhamento.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14462,7 +14462,7 @@
   <dimension ref="A1:R976"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A374" sqref="A374"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Notificações de Multas - Detalhamento.xlsx
+++ b/Notificações de Multas - Detalhamento.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clnogueira\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clnogueira\Desktop\GITHUB\FROTAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13264,7 +13264,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="&quot;R$&quot;#,##0.00;\-&quot;R$&quot;#,##0.00;&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00;\-&quot;R$&quot;#,##0.00;&quot;R$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -13299,7 +13299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13609,8 +13609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R979"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A853" workbookViewId="0">
-      <selection activeCell="E857" sqref="E857"/>
+    <sheetView tabSelected="1" topLeftCell="L870" workbookViewId="0">
+      <selection activeCell="R879" sqref="R879"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>

--- a/Notificações de Multas - Detalhamento.xlsx
+++ b/Notificações de Multas - Detalhamento.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R865"/>
+  <dimension ref="A1:R891"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
     <col width="16" customWidth="1" min="9" max="9"/>
     <col width="15" customWidth="1" min="10" max="10"/>
     <col width="82" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="21" customWidth="1" min="12" max="12"/>
     <col width="21" customWidth="1" min="13" max="13"/>
     <col width="15" customWidth="1" min="14" max="14"/>
     <col width="13" customWidth="1" min="15" max="15"/>
@@ -78356,12 +78356,12 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>2195623</t>
+          <t>2192686</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>FINALIZADA</t>
+          <t>ABERTA</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -78371,7 +78371,7 @@
       </c>
       <c r="D848" t="inlineStr">
         <is>
-          <t>RGF-8D57</t>
+          <t>RQE-9G10</t>
         </is>
       </c>
       <c r="E848" t="inlineStr">
@@ -78391,12 +78391,12 @@
       </c>
       <c r="H848" t="inlineStr">
         <is>
-          <t>EDVAN JOSE DA SILVA</t>
+          <t>CLAUDIO JOSE LEAO BISPO</t>
         </is>
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>094.851.354-32</t>
+          <t>916.840.993-15</t>
         </is>
       </c>
       <c r="J848" t="inlineStr">
@@ -78411,32 +78411,32 @@
       </c>
       <c r="L848" t="inlineStr">
         <is>
-          <t>R 00181052</t>
+          <t>S043172664</t>
         </is>
       </c>
       <c r="M848" t="inlineStr">
         <is>
-          <t>2025-01-06 00:00:00</t>
+          <t>2025-01-03 00:00:00</t>
         </is>
       </c>
       <c r="N848" t="inlineStr">
         <is>
-          <t>08:04</t>
+          <t>10:02</t>
         </is>
       </c>
       <c r="O848" t="inlineStr">
         <is>
-          <t>13/03/2025</t>
+          <t>11/03/2025</t>
         </is>
       </c>
       <c r="P848" t="inlineStr">
         <is>
-          <t>RN 302 KM 308 FX1 SENTIDO REDINHA</t>
+          <t>BR 101 KM 10003 PARNAMIRIM</t>
         </is>
       </c>
       <c r="Q848" t="inlineStr">
         <is>
-          <t>2025-02-06 00:00:00</t>
+          <t>2025-01-30 00:00:00</t>
         </is>
       </c>
       <c r="R848" t="inlineStr">
@@ -78448,7 +78448,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>2197411</t>
+          <t>2195623</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
@@ -78463,7 +78463,7 @@
       </c>
       <c r="D849" t="inlineStr">
         <is>
-          <t>RQC-1I14</t>
+          <t>RGF-8D57</t>
         </is>
       </c>
       <c r="E849" t="inlineStr">
@@ -78483,12 +78483,12 @@
       </c>
       <c r="H849" t="inlineStr">
         <is>
-          <t>GEOVANI CASTILHO PEREIRA</t>
+          <t>EDVAN JOSE DA SILVA</t>
         </is>
       </c>
       <c r="I849" t="inlineStr">
         <is>
-          <t>052.934.089-50</t>
+          <t>094.851.354-32</t>
         </is>
       </c>
       <c r="J849" t="inlineStr">
@@ -78498,22 +78498,22 @@
       </c>
       <c r="K849" t="inlineStr">
         <is>
-          <t>ESTACIONAR EM LOCAL/HORARIO PROIBIDO ESPECIFICAMENTE PELA SINALIZACAO</t>
+          <t>TRANSITAR EM VELOCIDADE SUPERIOR A MAXIMA PERMITIDA EM ATE 20%</t>
         </is>
       </c>
       <c r="L849" t="inlineStr">
         <is>
-          <t>AE00015137</t>
+          <t>R 00181052</t>
         </is>
       </c>
       <c r="M849" t="inlineStr">
         <is>
-          <t>2025-01-16 00:00:00</t>
+          <t>2025-01-06 00:00:00</t>
         </is>
       </c>
       <c r="N849" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>08:04</t>
         </is>
       </c>
       <c r="O849" t="inlineStr">
@@ -78523,12 +78523,12 @@
       </c>
       <c r="P849" t="inlineStr">
         <is>
-          <t>AEROPORTO DE SAO GONSALO DO AMARANTE AREA DE DESEMBARQUE PROXIMO AO PORTAO 02</t>
+          <t>RN 302 KM 308 FX1 SENTIDO REDINHA</t>
         </is>
       </c>
       <c r="Q849" t="inlineStr">
         <is>
-          <t>2025-02-10 00:00:00</t>
+          <t>2025-02-06 00:00:00</t>
         </is>
       </c>
       <c r="R849" t="inlineStr">
@@ -78540,7 +78540,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>2197416</t>
+          <t>2197411</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
@@ -78555,7 +78555,7 @@
       </c>
       <c r="D850" t="inlineStr">
         <is>
-          <t>RZH-0C17</t>
+          <t>RQC-1I14</t>
         </is>
       </c>
       <c r="E850" t="inlineStr">
@@ -78575,12 +78575,12 @@
       </c>
       <c r="H850" t="inlineStr">
         <is>
-          <t>VALDIR JOSE DE GODOY ROBERTO</t>
+          <t>GEOVANI CASTILHO PEREIRA</t>
         </is>
       </c>
       <c r="I850" t="inlineStr">
         <is>
-          <t>315.698.888-09</t>
+          <t>052.934.089-50</t>
         </is>
       </c>
       <c r="J850" t="inlineStr">
@@ -78595,7 +78595,7 @@
       </c>
       <c r="L850" t="inlineStr">
         <is>
-          <t>AE00015138</t>
+          <t>AE00015137</t>
         </is>
       </c>
       <c r="M850" t="inlineStr">
@@ -78605,7 +78605,7 @@
       </c>
       <c r="N850" t="inlineStr">
         <is>
-          <t>16:13</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="O850" t="inlineStr">
@@ -78615,7 +78615,7 @@
       </c>
       <c r="P850" t="inlineStr">
         <is>
-          <t>AEROPORTO DE SAO GONSALO DO AMRANTE AREA DESEMBARQUE PROXIMO AO PORTAO 02</t>
+          <t>AEROPORTO DE SAO GONSALO DO AMARANTE AREA DE DESEMBARQUE PROXIMO AO PORTAO 02</t>
         </is>
       </c>
       <c r="Q850" t="inlineStr">
@@ -78632,7 +78632,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>2197418</t>
+          <t>2197416</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -78647,7 +78647,7 @@
       </c>
       <c r="D851" t="inlineStr">
         <is>
-          <t>OJW-9B63</t>
+          <t>RZH-0C17</t>
         </is>
       </c>
       <c r="E851" t="inlineStr">
@@ -78667,12 +78667,12 @@
       </c>
       <c r="H851" t="inlineStr">
         <is>
-          <t>MARCIO ALEXANDRE DA SILVA SALVADOR</t>
+          <t>VALDIR JOSE DE GODOY ROBERTO</t>
         </is>
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>029.364.827-12</t>
+          <t>315.698.888-09</t>
         </is>
       </c>
       <c r="J851" t="inlineStr">
@@ -78682,32 +78682,32 @@
       </c>
       <c r="K851" t="inlineStr">
         <is>
-          <t>TRANSITAR EM VELOCIDADE SUPERIOR A MAXIMA PERMITIDA EM ATE 20%</t>
+          <t>ESTACIONAR EM LOCAL/HORARIO PROIBIDO ESPECIFICAMENTE PELA SINALIZACAO</t>
         </is>
       </c>
       <c r="L851" t="inlineStr">
         <is>
-          <t>R 19867452</t>
+          <t>AE00015138</t>
         </is>
       </c>
       <c r="M851" t="inlineStr">
         <is>
-          <t>2025-01-31 00:00:00</t>
+          <t>2025-01-16 00:00:00</t>
         </is>
       </c>
       <c r="N851" t="inlineStr">
         <is>
-          <t>09:03</t>
+          <t>16:13</t>
         </is>
       </c>
       <c r="O851" t="inlineStr">
         <is>
-          <t>24/03/2025</t>
+          <t>13/03/2025</t>
         </is>
       </c>
       <c r="P851" t="inlineStr">
         <is>
-          <t>AV PRUDENTE DE MORAIS LAGOA NOVA EM FRENTE AO IMOVEL DE N 4666 SENTIDO CANDELARIA</t>
+          <t>AEROPORTO DE SAO GONSALO DO AMRANTE AREA DESEMBARQUE PROXIMO AO PORTAO 02</t>
         </is>
       </c>
       <c r="Q851" t="inlineStr">
@@ -78724,7 +78724,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>2197419</t>
+          <t>2197418</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -78739,7 +78739,7 @@
       </c>
       <c r="D852" t="inlineStr">
         <is>
-          <t>RGK-5C49</t>
+          <t>OJW-9B63</t>
         </is>
       </c>
       <c r="E852" t="inlineStr">
@@ -78759,12 +78759,12 @@
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>EDUARDO FERREIRA DA COSTA</t>
+          <t>MARCIO ALEXANDRE DA SILVA SALVADOR</t>
         </is>
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>276.108.468-30</t>
+          <t>029.364.827-12</t>
         </is>
       </c>
       <c r="J852" t="inlineStr">
@@ -78774,22 +78774,22 @@
       </c>
       <c r="K852" t="inlineStr">
         <is>
-          <t>AVANCAR O SINAL VERMELHO DO SEMAFORO - FISCALIZACAO ELETRONICA</t>
+          <t>TRANSITAR EM VELOCIDADE SUPERIOR A MAXIMA PERMITIDA EM ATE 20%</t>
         </is>
       </c>
       <c r="L852" t="inlineStr">
         <is>
-          <t>F 00245995</t>
+          <t>R 19867452</t>
         </is>
       </c>
       <c r="M852" t="inlineStr">
         <is>
-          <t>2025-02-02 00:00:00</t>
+          <t>2025-01-31 00:00:00</t>
         </is>
       </c>
       <c r="N852" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>09:03</t>
         </is>
       </c>
       <c r="O852" t="inlineStr">
@@ -78799,7 +78799,7 @@
       </c>
       <c r="P852" t="inlineStr">
         <is>
-          <t>AV CEL ESTEVAO X RUA BRASILIA  SENTIDO CENTRO</t>
+          <t>AV PRUDENTE DE MORAIS LAGOA NOVA EM FRENTE AO IMOVEL DE N 4666 SENTIDO CANDELARIA</t>
         </is>
       </c>
       <c r="Q852" t="inlineStr">
@@ -78809,14 +78809,14 @@
       </c>
       <c r="R852" t="inlineStr">
         <is>
-          <t>293.47</t>
+          <t>130.16</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>2214809</t>
+          <t>2197419</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -78831,7 +78831,7 @@
       </c>
       <c r="D853" t="inlineStr">
         <is>
-          <t>RGM-3E60</t>
+          <t>RGK-5C49</t>
         </is>
       </c>
       <c r="E853" t="inlineStr">
@@ -78851,12 +78851,12 @@
       </c>
       <c r="H853" t="inlineStr">
         <is>
-          <t>RICELLI ALEXANDRE ANTUNES</t>
+          <t>EDUARDO FERREIRA DA COSTA</t>
         </is>
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>285.535.838-80</t>
+          <t>276.108.468-30</t>
         </is>
       </c>
       <c r="J853" t="inlineStr">
@@ -78866,54 +78866,54 @@
       </c>
       <c r="K853" t="inlineStr">
         <is>
-          <t>TRANSITAR EM VELOCIDADE SUPERIOR A MAXIMA PERMITIDA EM MAIS DE 20% ATE 50%</t>
+          <t>AVANCAR O SINAL VERMELHO DO SEMAFORO - FISCALIZACAO ELETRONICA</t>
         </is>
       </c>
       <c r="L853" t="inlineStr">
         <is>
-          <t>19874618</t>
+          <t>F 00245995</t>
         </is>
       </c>
       <c r="M853" t="inlineStr">
         <is>
-          <t>2025-03-05 00:00:00</t>
+          <t>2025-02-02 00:00:00</t>
         </is>
       </c>
       <c r="N853" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="O853" t="inlineStr">
         <is>
-          <t>28/04/2025</t>
+          <t>24/03/2025</t>
         </is>
       </c>
       <c r="P853" t="inlineStr">
         <is>
-          <t>AV HERMES DE FONSECA EM FRENTE AO HOSP DE GUANICAO DE NATAL  SENTIDO PETROPOLIS</t>
+          <t>AV CEL ESTEVAO X RUA BRASILIA  SENTIDO CENTRO</t>
         </is>
       </c>
       <c r="Q853" t="inlineStr">
         <is>
-          <t>2025-03-23 00:00:00</t>
+          <t>2025-02-10 00:00:00</t>
         </is>
       </c>
       <c r="R853" t="inlineStr">
         <is>
-          <t>195.23</t>
+          <t>293.47</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>2224266</t>
+          <t>2208684</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>FINALIZADA</t>
+          <t>ABERTA</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -78923,7 +78923,7 @@
       </c>
       <c r="D854" t="inlineStr">
         <is>
-          <t>RGL-5J76</t>
+          <t>RGJ-8C40</t>
         </is>
       </c>
       <c r="E854" t="inlineStr">
@@ -78943,12 +78943,12 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>RODRIGO JOSE PARANHOS MAIA</t>
+          <t>ELCIO MENDES DA SILVA</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
         <is>
-          <t>055.865.247-67</t>
+          <t>941.450.676-49</t>
         </is>
       </c>
       <c r="J854" t="inlineStr">
@@ -78958,22 +78958,22 @@
       </c>
       <c r="K854" t="inlineStr">
         <is>
-          <t>TRANSITAR EM VELOCIDADE SUPERIOR A MAXIMA PERMITIDA EM ATE 20%</t>
+          <t>TRANSITAR EM VELOCIDADE SUPERIOR A MAXIMA PERMITIDA EM MAIS DE 20% ATE 50%</t>
         </is>
       </c>
       <c r="L854" t="inlineStr">
         <is>
-          <t>R19866951</t>
+          <t>R 19868449</t>
         </is>
       </c>
       <c r="M854" t="inlineStr">
         <is>
-          <t>2025-01-28 00:00:00</t>
+          <t>2025-02-02 00:00:00</t>
         </is>
       </c>
       <c r="N854" t="inlineStr">
         <is>
-          <t>21:33</t>
+          <t>20:42</t>
         </is>
       </c>
       <c r="O854" t="inlineStr">
@@ -78983,24 +78983,24 @@
       </c>
       <c r="P854" t="inlineStr">
         <is>
-          <t>PONTE NEWTON NAVARRO A 200M DA SAIDA DA PONTE</t>
+          <t>AV PRUDENTE DE MORAIS LAGOA NOVA EM FRENTE AO IMOVEL DE N 4666</t>
         </is>
       </c>
       <c r="Q854" t="inlineStr">
         <is>
-          <t>2025-04-13 00:00:00</t>
+          <t>2025-03-09 00:00:00</t>
         </is>
       </c>
       <c r="R854" t="inlineStr">
         <is>
-          <t>130.16</t>
+          <t>195.23</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>2224320</t>
+          <t>2214809</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
@@ -79015,7 +79015,7 @@
       </c>
       <c r="D855" t="inlineStr">
         <is>
-          <t>RQA-0D47</t>
+          <t>RGM-3E60</t>
         </is>
       </c>
       <c r="E855" t="inlineStr">
@@ -79035,12 +79035,12 @@
       </c>
       <c r="H855" t="inlineStr">
         <is>
-          <t>VALDEILSON DO NASCIMENTO ALCANTARA</t>
+          <t>RICELLI ALEXANDRE ANTUNES</t>
         </is>
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>036.188.617-96</t>
+          <t>285.535.838-80</t>
         </is>
       </c>
       <c r="J855" t="inlineStr">
@@ -79050,54 +79050,54 @@
       </c>
       <c r="K855" t="inlineStr">
         <is>
-          <t>TRANSITAR EM VELOCIDADE SUPERIOR A MAXIMA PERMITIDA EM ATE 20%</t>
+          <t>TRANSITAR EM VELOCIDADE SUPERIOR A MAXIMA PERMITIDA EM MAIS DE 20% ATE 50%</t>
         </is>
       </c>
       <c r="L855" t="inlineStr">
         <is>
-          <t>R00188987</t>
+          <t>19874618</t>
         </is>
       </c>
       <c r="M855" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-03-05 00:00:00</t>
         </is>
       </c>
       <c r="N855" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>06:38</t>
         </is>
       </c>
       <c r="O855" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>28/04/2025</t>
         </is>
       </c>
       <c r="P855" t="inlineStr">
         <is>
-          <t>AV PREF OMAR O GRADY KM 3 89 FX4 SENTIDO PARNAMIRIM</t>
+          <t>AV HERMES DE FONSECA EM FRENTE AO HOSP DE GUANICAO DE NATAL  SENTIDO PETROPOLIS</t>
         </is>
       </c>
       <c r="Q855" t="inlineStr">
         <is>
-          <t>2025-04-13 00:00:00</t>
+          <t>2025-03-23 00:00:00</t>
         </is>
       </c>
       <c r="R855" t="inlineStr">
         <is>
-          <t>130.16</t>
+          <t>195.23</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>2230374</t>
+          <t>2215111</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>FINALIZADA</t>
+          <t>ABERTA</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -79107,7 +79107,7 @@
       </c>
       <c r="D856" t="inlineStr">
         <is>
-          <t>RGM-3E60</t>
+          <t>RQF-5E74</t>
         </is>
       </c>
       <c r="E856" t="inlineStr">
@@ -79127,12 +79127,12 @@
       </c>
       <c r="H856" t="inlineStr">
         <is>
-          <t>RICELLI ALEXANDRE ANTUNES</t>
+          <t>WILLIAN RIBEIRO BOROTA</t>
         </is>
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>285.535.838-80</t>
+          <t>224.084.828-60</t>
         </is>
       </c>
       <c r="J856" t="inlineStr">
@@ -79142,37 +79142,37 @@
       </c>
       <c r="K856" t="inlineStr">
         <is>
-          <t>TRANSITAR EM VELOCIDADE SUPERIOR A MAXIMA PERMITIDA EM ATE 20%</t>
+          <t>PARAR AFASTADO DA GUIA DA CALCADA (MEIO-FIO) A MAIS DE 1M</t>
         </is>
       </c>
       <c r="L856" t="inlineStr">
         <is>
-          <t>R19880804</t>
+          <t>VE00002476</t>
         </is>
       </c>
       <c r="M856" t="inlineStr">
         <is>
-          <t>2025-04-09 00:00:00</t>
+          <t>2025-01-27 00:00:00</t>
         </is>
       </c>
       <c r="N856" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>00:32</t>
         </is>
       </c>
       <c r="O856" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="P856" t="inlineStr">
         <is>
-          <t>AV PRUDENTE DE MORAIS LAGOA NOVA A 21M DA SAIDA DO TUNEL DA AV CAP MOR GOUV</t>
+          <t>AEROPORTO DE SAO GONCALO DO AMARANTE AREA DE DESEMBARQUE PROXIMO AO PORTAO 2</t>
         </is>
       </c>
       <c r="Q856" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-03-24 00:00:00</t>
         </is>
       </c>
       <c r="R856" t="inlineStr">
@@ -79184,7 +79184,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>2238035</t>
+          <t>2224266</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
@@ -79199,7 +79199,7 @@
       </c>
       <c r="D857" t="inlineStr">
         <is>
-          <t>RQK-5E28</t>
+          <t>RGL-5J76</t>
         </is>
       </c>
       <c r="E857" t="inlineStr">
@@ -79219,12 +79219,12 @@
       </c>
       <c r="H857" t="inlineStr">
         <is>
-          <t>RAFAEL MELO MONTEIRO</t>
+          <t>RODRIGO JOSE PARANHOS MAIA</t>
         </is>
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>011.168.032-83</t>
+          <t>055.865.247-67</t>
         </is>
       </c>
       <c r="J857" t="inlineStr">
@@ -79239,32 +79239,32 @@
       </c>
       <c r="L857" t="inlineStr">
         <is>
-          <t>R 19883366</t>
+          <t>R19866951</t>
         </is>
       </c>
       <c r="M857" t="inlineStr">
         <is>
-          <t>2025-04-19 00:00:00</t>
+          <t>2025-01-28 00:00:00</t>
         </is>
       </c>
       <c r="N857" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>21:33</t>
         </is>
       </c>
       <c r="O857" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>24/03/2025</t>
         </is>
       </c>
       <c r="P857" t="inlineStr">
         <is>
-          <t>AV NEVALDO ROCHA DEFRONTE AO N 2453 ALECRIM</t>
+          <t>PONTE NEWTON NAVARRO A 200M DA SAIDA DA PONTE</t>
         </is>
       </c>
       <c r="Q857" t="inlineStr">
         <is>
-          <t>2025-05-18 00:00:00</t>
+          <t>2025-04-13 00:00:00</t>
         </is>
       </c>
       <c r="R857" t="inlineStr">
@@ -79276,12 +79276,12 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>2244546</t>
+          <t>2224314</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>FINALIZADA</t>
+          <t>ABERTA</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -79331,32 +79331,32 @@
       </c>
       <c r="L858" t="inlineStr">
         <is>
-          <t>R 19882008</t>
+          <t>S044249496</t>
         </is>
       </c>
       <c r="M858" t="inlineStr">
         <is>
+          <t>2025-03-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="N858" t="inlineStr">
+        <is>
+          <t>12:02</t>
+        </is>
+      </c>
+      <c r="O858" t="inlineStr">
+        <is>
+          <t>13/05/2025</t>
+        </is>
+      </c>
+      <c r="P858" t="inlineStr">
+        <is>
+          <t>BR 101 KM 95 54 MUNICIPIO NATAL</t>
+        </is>
+      </c>
+      <c r="Q858" t="inlineStr">
+        <is>
           <t>2025-04-13 00:00:00</t>
-        </is>
-      </c>
-      <c r="N858" t="inlineStr">
-        <is>
-          <t>06:17</t>
-        </is>
-      </c>
-      <c r="O858" t="inlineStr">
-        <is>
-          <t>23/06/2025</t>
-        </is>
-      </c>
-      <c r="P858" t="inlineStr">
-        <is>
-          <t>AV JAGUARARI CANDELARIA EM FRENTE AO COND GREEN</t>
-        </is>
-      </c>
-      <c r="Q858" t="inlineStr">
-        <is>
-          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R858" t="inlineStr">
@@ -79368,7 +79368,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>2244548</t>
+          <t>2224320</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
@@ -79383,7 +79383,7 @@
       </c>
       <c r="D859" t="inlineStr">
         <is>
-          <t>RQA-0D48</t>
+          <t>RQA-0D47</t>
         </is>
       </c>
       <c r="E859" t="inlineStr">
@@ -79403,12 +79403,12 @@
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>OSVALDO PINTO JUNIOR</t>
+          <t>VALDEILSON DO NASCIMENTO ALCANTARA</t>
         </is>
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>074.306.657-05</t>
+          <t>036.188.617-96</t>
         </is>
       </c>
       <c r="J859" t="inlineStr">
@@ -79423,32 +79423,32 @@
       </c>
       <c r="L859" t="inlineStr">
         <is>
-          <t>R 19882285</t>
+          <t>R00188987</t>
         </is>
       </c>
       <c r="M859" t="inlineStr">
         <is>
+          <t>2025-03-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="N859" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+      <c r="O859" t="inlineStr">
+        <is>
+          <t>15/05/2025</t>
+        </is>
+      </c>
+      <c r="P859" t="inlineStr">
+        <is>
+          <t>AV PREF OMAR O GRADY KM 3 89 FX4 SENTIDO PARNAMIRIM</t>
+        </is>
+      </c>
+      <c r="Q859" t="inlineStr">
+        <is>
           <t>2025-04-13 00:00:00</t>
-        </is>
-      </c>
-      <c r="N859" t="inlineStr">
-        <is>
-          <t>19:54</t>
-        </is>
-      </c>
-      <c r="O859" t="inlineStr">
-        <is>
-          <t>23/06/2025</t>
-        </is>
-      </c>
-      <c r="P859" t="inlineStr">
-        <is>
-          <t>AV JAGUARARI CANDELARIA EM FRENTE AO IMOVEL DE N 4203</t>
-        </is>
-      </c>
-      <c r="Q859" t="inlineStr">
-        <is>
-          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R859" t="inlineStr">
@@ -79460,12 +79460,12 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>2244551</t>
+          <t>2227561</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>FINALIZADA</t>
+          <t>ABERTA</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
@@ -79475,17 +79475,17 @@
       </c>
       <c r="D860" t="inlineStr">
         <is>
-          <t>RQG-5D03</t>
+          <t>RGE-1F81</t>
         </is>
       </c>
       <c r="E860" t="inlineStr">
         <is>
-          <t>ADM</t>
+          <t>RN_TODOS</t>
         </is>
       </c>
       <c r="F860" t="inlineStr">
         <is>
-          <t>DEP ADM_ESTADOS</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G860" t="inlineStr">
@@ -79495,69 +79495,69 @@
       </c>
       <c r="H860" t="inlineStr">
         <is>
-          <t>ROSEMBERGSON TRAJANO DO NASCIMENTO</t>
+          <t>IVAN GOMES DE CARVALHO</t>
         </is>
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>058.207.454-18</t>
+          <t>011.074.153-65</t>
         </is>
       </c>
       <c r="J860" t="inlineStr">
         <is>
-          <t>FUNCIONARIO</t>
+          <t>PASTOR</t>
         </is>
       </c>
       <c r="K860" t="inlineStr">
         <is>
-          <t>DIRIGIR VEICULO UTILIZANDO-SE DE TELEFONE CELULAR</t>
+          <t>DEIXAR DE INDICAR C/ ANTEC, MED GESTO DE BRACO/LUZ INDICADORA, MUDANCA DE FAIXA</t>
         </is>
       </c>
       <c r="L860" t="inlineStr">
         <is>
-          <t>AB00032733</t>
+          <t>N002005480</t>
         </is>
       </c>
       <c r="M860" t="inlineStr">
         <is>
+          <t>2025-04-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="N860" t="inlineStr">
+        <is>
+          <t>09:16</t>
+        </is>
+      </c>
+      <c r="O860" t="inlineStr">
+        <is>
+          <t>04/06/2025</t>
+        </is>
+      </c>
+      <c r="P860" t="inlineStr">
+        <is>
+          <t>BR 101 KM 85 00 CRESCENTE</t>
+        </is>
+      </c>
+      <c r="Q860" t="inlineStr">
+        <is>
           <t>2025-04-22 00:00:00</t>
         </is>
       </c>
-      <c r="N860" t="inlineStr">
-        <is>
-          <t>16:23</t>
-        </is>
-      </c>
-      <c r="O860" t="inlineStr">
-        <is>
-          <t>09/06/2025</t>
-        </is>
-      </c>
-      <c r="P860" t="inlineStr">
-        <is>
-          <t>VIA AV DOUTOR JOAO MEDEIROS FILHO POTENGI</t>
-        </is>
-      </c>
-      <c r="Q860" t="inlineStr">
-        <is>
-          <t>2025-05-30 00:00:00</t>
-        </is>
-      </c>
       <c r="R860" t="inlineStr">
         <is>
-          <t>130.16</t>
+          <t>195.23</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>2244552</t>
+          <t>2229800</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>FINALIZADA</t>
+          <t>ABERTA</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
@@ -79567,7 +79567,7 @@
       </c>
       <c r="D861" t="inlineStr">
         <is>
-          <t>RQD-3I74</t>
+          <t>RQD-8A75</t>
         </is>
       </c>
       <c r="E861" t="inlineStr">
@@ -79587,12 +79587,12 @@
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>EDUARDO FERREIRA DA COSTA</t>
+          <t>JOSE EUDES MARTINS PEREIRA</t>
         </is>
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>276.108.468-30</t>
+          <t>343.563.978-43</t>
         </is>
       </c>
       <c r="J861" t="inlineStr">
@@ -79602,49 +79602,49 @@
       </c>
       <c r="K861" t="inlineStr">
         <is>
-          <t>TRANSITAR EM VELOCIDADE SUPERIOR A MAXIMA PERMITIDA EM ATE 20%</t>
+          <t>DEIXAR DE PARAR NO ACOSTAMENTO A DIREITA, P/ CRUZAR PISTA OU ENTRAR A ESQUERDA</t>
         </is>
       </c>
       <c r="L861" t="inlineStr">
         <is>
-          <t>R 19878966</t>
+          <t>N001785970</t>
         </is>
       </c>
       <c r="M861" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-03-31 00:00:00</t>
         </is>
       </c>
       <c r="N861" t="inlineStr">
         <is>
-          <t>21:46</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>26/05/2025</t>
         </is>
       </c>
       <c r="P861" t="inlineStr">
         <is>
-          <t>AV LIMA E SILVA LAGOA NOVA EM FRENTE AO N 1485 SENTIDO N SRA DE NAZARE  S</t>
+          <t>BR 226 KM 111 00 DECRESCENTE</t>
         </is>
       </c>
       <c r="Q861" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-04-27 00:00:00</t>
         </is>
       </c>
       <c r="R861" t="inlineStr">
         <is>
-          <t>130.16</t>
+          <t>195.23</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>2245763</t>
+          <t>2230374</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
@@ -79659,7 +79659,7 @@
       </c>
       <c r="D862" t="inlineStr">
         <is>
-          <t>TSP-3J58</t>
+          <t>RGM-3E60</t>
         </is>
       </c>
       <c r="E862" t="inlineStr">
@@ -79679,12 +79679,12 @@
       </c>
       <c r="H862" t="inlineStr">
         <is>
-          <t>EDVAN JOSE DA SILVA</t>
+          <t>RICELLI ALEXANDRE ANTUNES</t>
         </is>
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>094.851.354-32</t>
+          <t>285.535.838-80</t>
         </is>
       </c>
       <c r="J862" t="inlineStr">
@@ -79699,32 +79699,32 @@
       </c>
       <c r="L862" t="inlineStr">
         <is>
-          <t>R 00196124</t>
+          <t>R19880804</t>
         </is>
       </c>
       <c r="M862" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-09 00:00:00</t>
         </is>
       </c>
       <c r="N862" t="inlineStr">
         <is>
-          <t>22:23</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>10/07/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="P862" t="inlineStr">
         <is>
-          <t>RN 302 KM 3 08 FX1 SENTIDO REDINHA</t>
+          <t>AV PRUDENTE DE MORAIS LAGOA NOVA A 21M DA SAIDA DO TUNEL DA AV CAP MOR GOUV</t>
         </is>
       </c>
       <c r="Q862" t="inlineStr">
         <is>
-          <t>2025-06-03 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R862" t="inlineStr">
@@ -79736,12 +79736,12 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>2245766</t>
+          <t>2237980</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>FINALIZADA</t>
+          <t>ABERTA</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
@@ -79751,7 +79751,7 @@
       </c>
       <c r="D863" t="inlineStr">
         <is>
-          <t>RQA-5J24</t>
+          <t>RQE-9G90</t>
         </is>
       </c>
       <c r="E863" t="inlineStr">
@@ -79771,12 +79771,12 @@
       </c>
       <c r="H863" t="inlineStr">
         <is>
-          <t>VAGNER FARIAS DE SOUZA</t>
+          <t>ALBERTINO PEDRO SALVIANO</t>
         </is>
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>992.614.210-91</t>
+          <t>084.197.064-50</t>
         </is>
       </c>
       <c r="J863" t="inlineStr">
@@ -79786,49 +79786,49 @@
       </c>
       <c r="K863" t="inlineStr">
         <is>
-          <t>ESTACIONAR EM LOCAL/HORARIO PROIBIDO ESPECIFICAMENTE PELA SINALIZACAO</t>
+          <t>DEIXAR DE DAR PREFERENCIA A PEDESTRE/VEIC N MOTORIZADO NA FAIXA A ELE DESTINADA</t>
         </is>
       </c>
       <c r="L863" t="inlineStr">
         <is>
-          <t>AE00745599</t>
+          <t>AE00012332</t>
         </is>
       </c>
       <c r="M863" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="N863" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>09:10</t>
         </is>
       </c>
       <c r="O863" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="P863" t="inlineStr">
         <is>
-          <t>RUA LEONEL LEITE FRENTE AO NUMERAL 1441 ALECRIM</t>
+          <t>RUA DA PRACA DA MATRIZ  PROX A FARMACIA IDEAL</t>
         </is>
       </c>
       <c r="Q863" t="inlineStr">
         <is>
-          <t>2025-06-03 00:00:00</t>
+          <t>2025-05-18 00:00:00</t>
         </is>
       </c>
       <c r="R863" t="inlineStr">
         <is>
-          <t>130.16</t>
+          <t>293.47</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>2245790</t>
+          <t>2238035</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
@@ -79843,7 +79843,7 @@
       </c>
       <c r="D864" t="inlineStr">
         <is>
-          <t>RQE-9H30</t>
+          <t>RQK-5E28</t>
         </is>
       </c>
       <c r="E864" t="inlineStr">
@@ -79863,12 +79863,12 @@
       </c>
       <c r="H864" t="inlineStr">
         <is>
-          <t>DAVID DA SILVA</t>
+          <t>RAFAEL MELO MONTEIRO</t>
         </is>
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>005.731.842-59</t>
+          <t>011.168.032-83</t>
         </is>
       </c>
       <c r="J864" t="inlineStr">
@@ -79878,134 +79878,2518 @@
       </c>
       <c r="K864" t="inlineStr">
         <is>
-          <t>ESTACIONAR EM DESACORDO COM A REGULAMENTACAO ESPECIFICADA PELA SINALIZACAO</t>
+          <t>TRANSITAR EM VELOCIDADE SUPERIOR A MAXIMA PERMITIDA EM ATE 20%</t>
         </is>
       </c>
       <c r="L864" t="inlineStr">
         <is>
-          <t>AE00740139</t>
+          <t>R 19883366</t>
         </is>
       </c>
       <c r="M864" t="inlineStr">
         <is>
-          <t>2025-05-13 00:00:00</t>
+          <t>2025-04-19 00:00:00</t>
         </is>
       </c>
       <c r="N864" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="O864" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="P864" t="inlineStr">
         <is>
-          <t>RUA MAXARANGUAPE 550</t>
+          <t>AV NEVALDO ROCHA DEFRONTE AO N 2453 ALECRIM</t>
         </is>
       </c>
       <c r="Q864" t="inlineStr">
         <is>
-          <t>2025-06-04 00:00:00</t>
+          <t>2025-05-18 00:00:00</t>
         </is>
       </c>
       <c r="R864" t="inlineStr">
         <is>
-          <t>195.23</t>
+          <t>130.16</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
+          <t>2244546</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>FINALIZADA</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>RQA-0D48</t>
+        </is>
+      </c>
+      <c r="E865" t="inlineStr">
+        <is>
+          <t>RN_TODOS</t>
+        </is>
+      </c>
+      <c r="F865" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G865" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H865" t="inlineStr">
+        <is>
+          <t>OSVALDO PINTO JUNIOR</t>
+        </is>
+      </c>
+      <c r="I865" t="inlineStr">
+        <is>
+          <t>074.306.657-05</t>
+        </is>
+      </c>
+      <c r="J865" t="inlineStr">
+        <is>
+          <t>PASTOR</t>
+        </is>
+      </c>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>TRANSITAR EM VELOCIDADE SUPERIOR A MAXIMA PERMITIDA EM ATE 20%</t>
+        </is>
+      </c>
+      <c r="L865" t="inlineStr">
+        <is>
+          <t>R 19882008</t>
+        </is>
+      </c>
+      <c r="M865" t="inlineStr">
+        <is>
+          <t>2025-04-13 00:00:00</t>
+        </is>
+      </c>
+      <c r="N865" t="inlineStr">
+        <is>
+          <t>06:17</t>
+        </is>
+      </c>
+      <c r="O865" t="inlineStr">
+        <is>
+          <t>23/06/2025</t>
+        </is>
+      </c>
+      <c r="P865" t="inlineStr">
+        <is>
+          <t>AV JAGUARARI CANDELARIA EM FRENTE AO COND GREEN</t>
+        </is>
+      </c>
+      <c r="Q865" t="inlineStr">
+        <is>
+          <t>2025-05-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="R865" t="inlineStr">
+        <is>
+          <t>130.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>2244548</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>FINALIZADA</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>RQA-0D48</t>
+        </is>
+      </c>
+      <c r="E866" t="inlineStr">
+        <is>
+          <t>RN_TODOS</t>
+        </is>
+      </c>
+      <c r="F866" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G866" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H866" t="inlineStr">
+        <is>
+          <t>OSVALDO PINTO JUNIOR</t>
+        </is>
+      </c>
+      <c r="I866" t="inlineStr">
+        <is>
+          <t>074.306.657-05</t>
+        </is>
+      </c>
+      <c r="J866" t="inlineStr">
+        <is>
+          <t>PASTOR</t>
+        </is>
+      </c>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>TRANSITAR EM VELOCIDADE SUPERIOR A MAXIMA PERMITIDA EM ATE 20%</t>
+        </is>
+      </c>
+      <c r="L866" t="inlineStr">
+        <is>
+          <t>R 19882285</t>
+        </is>
+      </c>
+      <c r="M866" t="inlineStr">
+        <is>
+          <t>2025-04-13 00:00:00</t>
+        </is>
+      </c>
+      <c r="N866" t="inlineStr">
+        <is>
+          <t>19:54</t>
+        </is>
+      </c>
+      <c r="O866" t="inlineStr">
+        <is>
+          <t>23/06/2025</t>
+        </is>
+      </c>
+      <c r="P866" t="inlineStr">
+        <is>
+          <t>AV JAGUARARI CANDELARIA EM FRENTE AO IMOVEL DE N 4203</t>
+        </is>
+      </c>
+      <c r="Q866" t="inlineStr">
+        <is>
+          <t>2025-05-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="R866" t="inlineStr">
+        <is>
+          <t>130.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>2244551</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>FINALIZADA</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>RQG-5D03</t>
+        </is>
+      </c>
+      <c r="E867" t="inlineStr">
+        <is>
+          <t>ADM</t>
+        </is>
+      </c>
+      <c r="F867" t="inlineStr">
+        <is>
+          <t>DEP ADM_ESTADOS</t>
+        </is>
+      </c>
+      <c r="G867" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H867" t="inlineStr">
+        <is>
+          <t>ROSEMBERGSON TRAJANO DO NASCIMENTO</t>
+        </is>
+      </c>
+      <c r="I867" t="inlineStr">
+        <is>
+          <t>058.207.454-18</t>
+        </is>
+      </c>
+      <c r="J867" t="inlineStr">
+        <is>
+          <t>FUNCIONARIO</t>
+        </is>
+      </c>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>DIRIGIR VEICULO UTILIZANDO-SE DE TELEFONE CELULAR</t>
+        </is>
+      </c>
+      <c r="L867" t="inlineStr">
+        <is>
+          <t>AB00032733</t>
+        </is>
+      </c>
+      <c r="M867" t="inlineStr">
+        <is>
+          <t>2025-04-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="N867" t="inlineStr">
+        <is>
+          <t>16:23</t>
+        </is>
+      </c>
+      <c r="O867" t="inlineStr">
+        <is>
+          <t>09/06/2025</t>
+        </is>
+      </c>
+      <c r="P867" t="inlineStr">
+        <is>
+          <t>VIA AV DOUTOR JOAO MEDEIROS FILHO POTENGI</t>
+        </is>
+      </c>
+      <c r="Q867" t="inlineStr">
+        <is>
+          <t>2025-05-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="R867" t="inlineStr">
+        <is>
+          <t>130.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>2244552</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>FINALIZADA</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>RQD-3I74</t>
+        </is>
+      </c>
+      <c r="E868" t="inlineStr">
+        <is>
+          <t>RN_TODOS</t>
+        </is>
+      </c>
+      <c r="F868" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G868" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H868" t="inlineStr">
+        <is>
+          <t>EDUARDO FERREIRA DA COSTA</t>
+        </is>
+      </c>
+      <c r="I868" t="inlineStr">
+        <is>
+          <t>276.108.468-30</t>
+        </is>
+      </c>
+      <c r="J868" t="inlineStr">
+        <is>
+          <t>PASTOR</t>
+        </is>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>TRANSITAR EM VELOCIDADE SUPERIOR A MAXIMA PERMITIDA EM ATE 20%</t>
+        </is>
+      </c>
+      <c r="L868" t="inlineStr">
+        <is>
+          <t>R 19878966</t>
+        </is>
+      </c>
+      <c r="M868" t="inlineStr">
+        <is>
+          <t>2025-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="N868" t="inlineStr">
+        <is>
+          <t>21:46</t>
+        </is>
+      </c>
+      <c r="O868" t="inlineStr">
+        <is>
+          <t>02/06/2025</t>
+        </is>
+      </c>
+      <c r="P868" t="inlineStr">
+        <is>
+          <t>AV LIMA E SILVA LAGOA NOVA EM FRENTE AO N 1485 SENTIDO N SRA DE NAZARE  S</t>
+        </is>
+      </c>
+      <c r="Q868" t="inlineStr">
+        <is>
+          <t>2025-05-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="R868" t="inlineStr">
+        <is>
+          <t>130.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>2245763</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>FINALIZADA</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>TSP-3J58</t>
+        </is>
+      </c>
+      <c r="E869" t="inlineStr">
+        <is>
+          <t>RN_TODOS</t>
+        </is>
+      </c>
+      <c r="F869" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G869" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H869" t="inlineStr">
+        <is>
+          <t>EDVAN JOSE DA SILVA</t>
+        </is>
+      </c>
+      <c r="I869" t="inlineStr">
+        <is>
+          <t>094.851.354-32</t>
+        </is>
+      </c>
+      <c r="J869" t="inlineStr">
+        <is>
+          <t>PASTOR</t>
+        </is>
+      </c>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>TRANSITAR EM VELOCIDADE SUPERIOR A MAXIMA PERMITIDA EM ATE 20%</t>
+        </is>
+      </c>
+      <c r="L869" t="inlineStr">
+        <is>
+          <t>R 00196124</t>
+        </is>
+      </c>
+      <c r="M869" t="inlineStr">
+        <is>
+          <t>2025-05-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="N869" t="inlineStr">
+        <is>
+          <t>22:23</t>
+        </is>
+      </c>
+      <c r="O869" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
+      <c r="P869" t="inlineStr">
+        <is>
+          <t>RN 302 KM 3 08 FX1 SENTIDO REDINHA</t>
+        </is>
+      </c>
+      <c r="Q869" t="inlineStr">
+        <is>
+          <t>2025-06-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="R869" t="inlineStr">
+        <is>
+          <t>130.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>2245766</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>FINALIZADA</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>RQA-5J24</t>
+        </is>
+      </c>
+      <c r="E870" t="inlineStr">
+        <is>
+          <t>RN_TODOS</t>
+        </is>
+      </c>
+      <c r="F870" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G870" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H870" t="inlineStr">
+        <is>
+          <t>VAGNER FARIAS DE SOUZA</t>
+        </is>
+      </c>
+      <c r="I870" t="inlineStr">
+        <is>
+          <t>992.614.210-91</t>
+        </is>
+      </c>
+      <c r="J870" t="inlineStr">
+        <is>
+          <t>PASTOR</t>
+        </is>
+      </c>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>ESTACIONAR EM LOCAL/HORARIO PROIBIDO ESPECIFICAMENTE PELA SINALIZACAO</t>
+        </is>
+      </c>
+      <c r="L870" t="inlineStr">
+        <is>
+          <t>AE00745599</t>
+        </is>
+      </c>
+      <c r="M870" t="inlineStr">
+        <is>
+          <t>2025-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="N870" t="inlineStr">
+        <is>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="O870" t="inlineStr">
+        <is>
+          <t>03/07/2025</t>
+        </is>
+      </c>
+      <c r="P870" t="inlineStr">
+        <is>
+          <t>RUA LEONEL LEITE FRENTE AO NUMERAL 1441 ALECRIM</t>
+        </is>
+      </c>
+      <c r="Q870" t="inlineStr">
+        <is>
+          <t>2025-06-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="R870" t="inlineStr">
+        <is>
+          <t>130.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>2245790</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>FINALIZADA</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>RQE-9H30</t>
+        </is>
+      </c>
+      <c r="E871" t="inlineStr">
+        <is>
+          <t>RN_TODOS</t>
+        </is>
+      </c>
+      <c r="F871" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G871" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H871" t="inlineStr">
+        <is>
+          <t>DAVID DA SILVA</t>
+        </is>
+      </c>
+      <c r="I871" t="inlineStr">
+        <is>
+          <t>005.731.842-59</t>
+        </is>
+      </c>
+      <c r="J871" t="inlineStr">
+        <is>
+          <t>PASTOR</t>
+        </is>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>ESTACIONAR EM DESACORDO COM A REGULAMENTACAO ESPECIFICADA PELA SINALIZACAO</t>
+        </is>
+      </c>
+      <c r="L871" t="inlineStr">
+        <is>
+          <t>AE00740139</t>
+        </is>
+      </c>
+      <c r="M871" t="inlineStr">
+        <is>
+          <t>2025-05-13 00:00:00</t>
+        </is>
+      </c>
+      <c r="N871" t="inlineStr">
+        <is>
+          <t>11:23</t>
+        </is>
+      </c>
+      <c r="O871" t="inlineStr">
+        <is>
+          <t>03/07/2025</t>
+        </is>
+      </c>
+      <c r="P871" t="inlineStr">
+        <is>
+          <t>RUA MAXARANGUAPE 550</t>
+        </is>
+      </c>
+      <c r="Q871" t="inlineStr">
+        <is>
+          <t>2025-06-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="R871" t="inlineStr">
+        <is>
+          <t>195.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>2245907</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>ABERTA</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>RGE-1F81</t>
+        </is>
+      </c>
+      <c r="E872" t="inlineStr">
+        <is>
+          <t>RN_TODOS</t>
+        </is>
+      </c>
+      <c r="F872" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G872" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H872" t="inlineStr">
+        <is>
+          <t>IVAN GOMES DE CARVALHO</t>
+        </is>
+      </c>
+      <c r="I872" t="inlineStr">
+        <is>
+          <t>011.074.153-65</t>
+        </is>
+      </c>
+      <c r="J872" t="inlineStr">
+        <is>
+          <t>PASTOR</t>
+        </is>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>TRANSITAR EM VELOCIDADE SUPERIOR A MAXIMA PERMITIDA EM ATE 20%</t>
+        </is>
+      </c>
+      <c r="L872" t="inlineStr">
+        <is>
+          <t>RENAINF 10286347237</t>
+        </is>
+      </c>
+      <c r="M872" t="inlineStr">
+        <is>
+          <t>2025-05-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="N872" t="inlineStr">
+        <is>
+          <t>09:16</t>
+        </is>
+      </c>
+      <c r="O872" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="P872" t="inlineStr">
+        <is>
+          <t>BR 304 KM 88 20 CRESCENTE</t>
+        </is>
+      </c>
+      <c r="Q872" t="inlineStr">
+        <is>
+          <t>2025-06-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="R872" t="inlineStr">
+        <is>
+          <t>130.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
           <t>2257979</t>
         </is>
       </c>
-      <c r="B865" t="inlineStr">
-        <is>
-          <t>FINALIZADA</t>
-        </is>
-      </c>
-      <c r="C865" t="inlineStr">
-        <is>
-          <t>RN</t>
-        </is>
-      </c>
-      <c r="D865" t="inlineStr">
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>FINALIZADA</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr">
         <is>
           <t>RQK-5E28</t>
         </is>
       </c>
-      <c r="E865" t="inlineStr">
+      <c r="E873" t="inlineStr">
         <is>
           <t>RN_TODOS</t>
         </is>
       </c>
-      <c r="F865" t="inlineStr">
+      <c r="F873" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G865" t="inlineStr">
+      <c r="G873" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H865" t="inlineStr">
+      <c r="H873" t="inlineStr">
         <is>
           <t>RAFAEL MELO MONTEIRO</t>
         </is>
       </c>
-      <c r="I865" t="inlineStr">
+      <c r="I873" t="inlineStr">
         <is>
           <t>011.168.032-83</t>
         </is>
       </c>
-      <c r="J865" t="inlineStr">
-        <is>
-          <t>PASTOR</t>
-        </is>
-      </c>
-      <c r="K865" t="inlineStr">
+      <c r="J873" t="inlineStr">
+        <is>
+          <t>PASTOR</t>
+        </is>
+      </c>
+      <c r="K873" t="inlineStr">
         <is>
           <t>ESTACIONAR IMPEDINDO A MOVIMENTACAO DE OUTRO VEICULO</t>
         </is>
       </c>
-      <c r="L865" t="inlineStr">
+      <c r="L873" t="inlineStr">
         <is>
           <t>AE00749417</t>
         </is>
       </c>
-      <c r="M865" t="inlineStr">
+      <c r="M873" t="inlineStr">
         <is>
           <t>2025-06-06 00:00:00</t>
         </is>
       </c>
-      <c r="N865" t="inlineStr">
+      <c r="N873" t="inlineStr">
         <is>
           <t>14:44</t>
         </is>
       </c>
-      <c r="O865" t="inlineStr">
+      <c r="O873" t="inlineStr">
         <is>
           <t>28/07/2025</t>
         </is>
       </c>
-      <c r="P865" t="inlineStr">
+      <c r="P873" t="inlineStr">
         <is>
           <t>AVENIDA PRESIDENTE QUARESMA 454 ALECRIM</t>
         </is>
       </c>
-      <c r="Q865" t="inlineStr">
+      <c r="Q873" t="inlineStr">
         <is>
           <t>2025-07-03 00:00:00</t>
         </is>
       </c>
-      <c r="R865" t="inlineStr">
+      <c r="R873" t="inlineStr">
         <is>
           <t>130.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>2258044</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>ABERTA</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>OJW-9B81</t>
+        </is>
+      </c>
+      <c r="E874" t="inlineStr">
+        <is>
+          <t>RN_TODOS</t>
+        </is>
+      </c>
+      <c r="F874" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G874" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H874" t="inlineStr">
+        <is>
+          <t>WELLINGTON SILVA CAMPISTA</t>
+        </is>
+      </c>
+      <c r="I874" t="inlineStr">
+        <is>
+          <t>069.549.847-95</t>
+        </is>
+      </c>
+      <c r="J874" t="inlineStr">
+        <is>
+          <t>PASTOR</t>
+        </is>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>EXECUTAR OPERACAO DE CONVERSAO A ESQUERDA EM LOCAL PROIBIDO PELA SINALIZACAO</t>
+        </is>
+      </c>
+      <c r="L874" t="inlineStr">
+        <is>
+          <t>AE00730428</t>
+        </is>
+      </c>
+      <c r="M874" t="inlineStr">
+        <is>
+          <t>2025-06-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="N874" t="inlineStr">
+        <is>
+          <t>11:04</t>
+        </is>
+      </c>
+      <c r="O874" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="P874" t="inlineStr">
+        <is>
+          <t>AVENIDA PRESIDENTE BANDEIRA COM AVENIDA CORONEL ESTEVAM BAIRRO ALECRIM</t>
+        </is>
+      </c>
+      <c r="Q874" t="inlineStr">
+        <is>
+          <t>2025-07-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="R874" t="inlineStr">
+        <is>
+          <t>195.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>2270833</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>ABERTA</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>OJW-9C01</t>
+        </is>
+      </c>
+      <c r="E875" t="inlineStr">
+        <is>
+          <t>RN_TODOS</t>
+        </is>
+      </c>
+      <c r="F875" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G875" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H875" t="inlineStr">
+        <is>
+          <t>FABIO NILO DA SILVA</t>
+        </is>
+      </c>
+      <c r="I875" t="inlineStr">
+        <is>
+          <t>040.131.899-09</t>
+        </is>
+      </c>
+      <c r="J875" t="inlineStr">
+        <is>
+          <t>PASTOR</t>
+        </is>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>ESTACIONAR NAS ESQUINAS E A MENOS DE 5M DO ALINHAMENTO DA VIA TRANSVERSAL</t>
+        </is>
+      </c>
+      <c r="L875" t="inlineStr">
+        <is>
+          <t>A00004393</t>
+        </is>
+      </c>
+      <c r="M875" t="inlineStr">
+        <is>
+          <t>2025-07-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="N875" t="inlineStr">
+        <is>
+          <t>09:54</t>
+        </is>
+      </c>
+      <c r="O875" t="inlineStr">
+        <is>
+          <t>08/09/2025</t>
+        </is>
+      </c>
+      <c r="P875" t="inlineStr">
+        <is>
+          <t>RUA AMARO CAVALCANTE SN CENTRO ESQUINA COM A RUA MARTINS FERREIRA</t>
+        </is>
+      </c>
+      <c r="Q875" t="inlineStr">
+        <is>
+          <t>2025-08-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R875" t="inlineStr">
+        <is>
+          <t>130.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>2270843</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>ABERTA</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>OJW-9B81</t>
+        </is>
+      </c>
+      <c r="E876" t="inlineStr">
+        <is>
+          <t>RN_TODOS</t>
+        </is>
+      </c>
+      <c r="F876" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G876" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H876" t="inlineStr">
+        <is>
+          <t>WELLINGTON SILVA CAMPISTA</t>
+        </is>
+      </c>
+      <c r="I876" t="inlineStr">
+        <is>
+          <t>069.549.847-95</t>
+        </is>
+      </c>
+      <c r="J876" t="inlineStr">
+        <is>
+          <t>PASTOR</t>
+        </is>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>TRANSITAR EM VELOCIDADE SUPERIOR A MAXIMA PERMITIDA EM ATE 20%</t>
+        </is>
+      </c>
+      <c r="L876" t="inlineStr">
+        <is>
+          <t>R19899555</t>
+        </is>
+      </c>
+      <c r="M876" t="inlineStr">
+        <is>
+          <t>2025-07-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="N876" t="inlineStr">
+        <is>
+          <t>11:14</t>
+        </is>
+      </c>
+      <c r="O876" t="inlineStr">
+        <is>
+          <t>12/09/2025</t>
+        </is>
+      </c>
+      <c r="P876" t="inlineStr">
+        <is>
+          <t>AV SENADOR SALGADO FILHO X AV ANTONIO BASILIO SENTIDO CENTRO</t>
+        </is>
+      </c>
+      <c r="Q876" t="inlineStr">
+        <is>
+          <t>2025-08-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R876" t="inlineStr">
+        <is>
+          <t>130.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>2270863</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>ABERTA</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>OJW-9B81</t>
+        </is>
+      </c>
+      <c r="E877" t="inlineStr">
+        <is>
+          <t>RN_TODOS</t>
+        </is>
+      </c>
+      <c r="F877" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G877" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H877" t="inlineStr">
+        <is>
+          <t>WELLINGTON SILVA CAMPISTA</t>
+        </is>
+      </c>
+      <c r="I877" t="inlineStr">
+        <is>
+          <t>069.549.847-95</t>
+        </is>
+      </c>
+      <c r="J877" t="inlineStr">
+        <is>
+          <t>PASTOR</t>
+        </is>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>TRANSITAR EM VELOCIDADE SUPERIOR A MAXIMA PERMITIDA EM ATE 20%</t>
+        </is>
+      </c>
+      <c r="L877" t="inlineStr">
+        <is>
+          <t>R19900684</t>
+        </is>
+      </c>
+      <c r="M877" t="inlineStr">
+        <is>
+          <t>2025-07-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="N877" t="inlineStr">
+        <is>
+          <t>21:22</t>
+        </is>
+      </c>
+      <c r="O877" t="inlineStr">
+        <is>
+          <t>15/09/2025</t>
+        </is>
+      </c>
+      <c r="P877" t="inlineStr">
+        <is>
+          <t>AV SENADOR SALGADO FILHO X AV ANTONIO BASILIO SENTIDO CENTRO</t>
+        </is>
+      </c>
+      <c r="Q877" t="inlineStr">
+        <is>
+          <t>2025-08-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R877" t="inlineStr">
+        <is>
+          <t>130.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>2270878</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>ABERTA</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>RQD-8A87</t>
+        </is>
+      </c>
+      <c r="E878" t="inlineStr">
+        <is>
+          <t>RN_TODOS</t>
+        </is>
+      </c>
+      <c r="F878" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G878" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H878" t="inlineStr">
+        <is>
+          <t>MARCIO TELES DE FREITAS</t>
+        </is>
+      </c>
+      <c r="I878" t="inlineStr">
+        <is>
+          <t>832.065.665-68</t>
+        </is>
+      </c>
+      <c r="J878" t="inlineStr">
+        <is>
+          <t>PASTOR</t>
+        </is>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>TRANSITAR EM VELOCIDADE SUPERIOR A MAXIMA PERMITIDA EM ATE 20%</t>
+        </is>
+      </c>
+      <c r="L878" t="inlineStr">
+        <is>
+          <t>R19900606</t>
+        </is>
+      </c>
+      <c r="M878" t="inlineStr">
+        <is>
+          <t>2025-07-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="N878" t="inlineStr">
+        <is>
+          <t>08:50</t>
+        </is>
+      </c>
+      <c r="O878" t="inlineStr">
+        <is>
+          <t>15/09/2025</t>
+        </is>
+      </c>
+      <c r="P878" t="inlineStr">
+        <is>
+          <t>AV PRUDENTE DE MORAIS LAGOA NOVA EM FRENTE AO IMOVEL D N 4666</t>
+        </is>
+      </c>
+      <c r="Q878" t="inlineStr">
+        <is>
+          <t>2025-08-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R878" t="inlineStr">
+        <is>
+          <t>130.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>2270886</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>ABERTA</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>RQH-8F37</t>
+        </is>
+      </c>
+      <c r="E879" t="inlineStr">
+        <is>
+          <t>RN_TODOS</t>
+        </is>
+      </c>
+      <c r="F879" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G879" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H879" t="inlineStr">
+        <is>
+          <t>CLAUDIO PATRIC SANTOS NOGUEIRA</t>
+        </is>
+      </c>
+      <c r="I879" t="inlineStr">
+        <is>
+          <t>119.660.717-60</t>
+        </is>
+      </c>
+      <c r="J879" t="inlineStr">
+        <is>
+          <t>PASTOR</t>
+        </is>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>DEIXAR DE DESLOCAR C/ANTECEDENCIA VEIC P/ FAIXA MAIS A DIREITA QDO FOR MANOBRAR</t>
+        </is>
+      </c>
+      <c r="L879" t="inlineStr">
+        <is>
+          <t>A100033047</t>
+        </is>
+      </c>
+      <c r="M879" t="inlineStr">
+        <is>
+          <t>2025-07-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="N879" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="O879" t="inlineStr">
+        <is>
+          <t>04/09/2025</t>
+        </is>
+      </c>
+      <c r="P879" t="inlineStr">
+        <is>
+          <t>AV ENIDA RN 063 ENGENHEIRO ROBERTO FREIRE CAPIM MACIO</t>
+        </is>
+      </c>
+      <c r="Q879" t="inlineStr">
+        <is>
+          <t>2025-08-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R879" t="inlineStr">
+        <is>
+          <t>130.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>2270902</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>ABERTA</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>RGK-8B18</t>
+        </is>
+      </c>
+      <c r="E880" t="inlineStr">
+        <is>
+          <t>RN_TODOS</t>
+        </is>
+      </c>
+      <c r="F880" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G880" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H880" t="inlineStr">
+        <is>
+          <t>VALDIR JOSE DE GODOY ROBERTO</t>
+        </is>
+      </c>
+      <c r="I880" t="inlineStr">
+        <is>
+          <t>315.698.888-09</t>
+        </is>
+      </c>
+      <c r="J880" t="inlineStr">
+        <is>
+          <t>PASTOR</t>
+        </is>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>TRANSITAR NA FAIXA/PISTA DA DIREITA REGUL CIRCULACAO EXCLUSIVA DETERM VEICULO</t>
+        </is>
+      </c>
+      <c r="L880" t="inlineStr">
+        <is>
+          <t>A100027230</t>
+        </is>
+      </c>
+      <c r="M880" t="inlineStr">
+        <is>
+          <t>2025-02-08 00:00:00</t>
+        </is>
+      </c>
+      <c r="N880" t="inlineStr">
+        <is>
+          <t>18:27</t>
+        </is>
+      </c>
+      <c r="O880" t="inlineStr">
+        <is>
+          <t>31/03/2025</t>
+        </is>
+      </c>
+      <c r="P880" t="inlineStr">
+        <is>
+          <t>AVENIDA ENGENHEIRO ROBERTO FREIRE CAPIM MACIO</t>
+        </is>
+      </c>
+      <c r="Q880" t="inlineStr">
+        <is>
+          <t>2025-08-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R880" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>2270916</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>ABERTA</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>RQB-8G34</t>
+        </is>
+      </c>
+      <c r="E881" t="inlineStr">
+        <is>
+          <t>RN_TODOS</t>
+        </is>
+      </c>
+      <c r="F881" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G881" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H881" t="inlineStr">
+        <is>
+          <t>LUAN HONORIO DA SILVA</t>
+        </is>
+      </c>
+      <c r="I881" t="inlineStr">
+        <is>
+          <t>141.777.747-82</t>
+        </is>
+      </c>
+      <c r="J881" t="inlineStr">
+        <is>
+          <t>PASTOR</t>
+        </is>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>ESTACIONAR EM DESACORDO COM A REGULAMENTACAO ESPECIFICADA PELA SINALIZACAO</t>
+        </is>
+      </c>
+      <c r="L881" t="inlineStr">
+        <is>
+          <t>AE00768941</t>
+        </is>
+      </c>
+      <c r="M881" t="inlineStr">
+        <is>
+          <t>2025-07-17 00:00:00</t>
+        </is>
+      </c>
+      <c r="N881" t="inlineStr">
+        <is>
+          <t>13:07</t>
+        </is>
+      </c>
+      <c r="O881" t="inlineStr">
+        <is>
+          <t>11/09/2025</t>
+        </is>
+      </c>
+      <c r="P881" t="inlineStr">
+        <is>
+          <t>RUA MAXARANGUAPE LATERAL DO IMOVEL N 800 TIROL</t>
+        </is>
+      </c>
+      <c r="Q881" t="inlineStr">
+        <is>
+          <t>2025-08-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R881" t="inlineStr">
+        <is>
+          <t>195.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>2273876</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>ABERTA</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>RQA-5J24</t>
+        </is>
+      </c>
+      <c r="E882" t="inlineStr">
+        <is>
+          <t>RN_TODOS</t>
+        </is>
+      </c>
+      <c r="F882" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G882" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H882" t="inlineStr">
+        <is>
+          <t>VAGNER FARIAS DE SOUZA</t>
+        </is>
+      </c>
+      <c r="I882" t="inlineStr">
+        <is>
+          <t>992.614.210-91</t>
+        </is>
+      </c>
+      <c r="J882" t="inlineStr">
+        <is>
+          <t>PASTOR</t>
+        </is>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>ESTACIONAR AO LADO DE OUTRO VEICULO EM FILA DUPLA</t>
+        </is>
+      </c>
+      <c r="L882" t="inlineStr">
+        <is>
+          <t>AE00735620</t>
+        </is>
+      </c>
+      <c r="M882" t="inlineStr">
+        <is>
+          <t>2025-04-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="N882" t="inlineStr">
+        <is>
+          <t>16:10</t>
+        </is>
+      </c>
+      <c r="O882" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="P882" t="inlineStr">
+        <is>
+          <t>RUA PRESIDENTE JOSE BENTO DE FRENTE  A ELETRO MUSICAL ALECRIM</t>
+        </is>
+      </c>
+      <c r="Q882" t="inlineStr">
+        <is>
+          <t>2025-08-13 00:00:00</t>
+        </is>
+      </c>
+      <c r="R882" t="inlineStr">
+        <is>
+          <t>195.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>2274099</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>ABERTA</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>RQA-0D48</t>
+        </is>
+      </c>
+      <c r="E883" t="inlineStr">
+        <is>
+          <t>CAPITAL</t>
+        </is>
+      </c>
+      <c r="F883" t="inlineStr">
+        <is>
+          <t>CIDADE DA ESPERANCA</t>
+        </is>
+      </c>
+      <c r="G883" t="inlineStr">
+        <is>
+          <t>CIDADE ESPERANCA</t>
+        </is>
+      </c>
+      <c r="H883" t="inlineStr">
+        <is>
+          <t>OSVALDO PINTO JUNIOR</t>
+        </is>
+      </c>
+      <c r="I883" t="inlineStr">
+        <is>
+          <t>074.306.657-05</t>
+        </is>
+      </c>
+      <c r="J883" t="inlineStr">
+        <is>
+          <t>PASTOR</t>
+        </is>
+      </c>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>TRANSITAR EM VELOCIDADE SUPERIOR A MAXIMA PERMITIDA EM ATE 20%</t>
+        </is>
+      </c>
+      <c r="L883" t="inlineStr">
+        <is>
+          <t>R19901657</t>
+        </is>
+      </c>
+      <c r="M883" t="inlineStr">
+        <is>
+          <t>2025-07-13 00:00:00</t>
+        </is>
+      </c>
+      <c r="N883" t="inlineStr">
+        <is>
+          <t>06:11</t>
+        </is>
+      </c>
+      <c r="O883" t="inlineStr">
+        <is>
+          <t>18/09/2025</t>
+        </is>
+      </c>
+      <c r="P883" t="inlineStr">
+        <is>
+          <t>AV JAGUARARI CANDELARIA EM FRENTE AO CONDGREEN VILLAGE</t>
+        </is>
+      </c>
+      <c r="Q883" t="inlineStr">
+        <is>
+          <t>2025-08-13 00:00:00</t>
+        </is>
+      </c>
+      <c r="R883" t="inlineStr">
+        <is>
+          <t>130.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>2274104</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>ABERTA</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>OJY-8I42</t>
+        </is>
+      </c>
+      <c r="E884" t="inlineStr">
+        <is>
+          <t>INTERIOR</t>
+        </is>
+      </c>
+      <c r="F884" t="inlineStr">
+        <is>
+          <t>SANTA CRUZ</t>
+        </is>
+      </c>
+      <c r="G884" t="inlineStr">
+        <is>
+          <t>SANTA CRUZ</t>
+        </is>
+      </c>
+      <c r="H884" t="inlineStr">
+        <is>
+          <t>JOSE EUDES MARTINS PEREIRA</t>
+        </is>
+      </c>
+      <c r="I884" t="inlineStr">
+        <is>
+          <t>343.563.978-43</t>
+        </is>
+      </c>
+      <c r="J884" t="inlineStr">
+        <is>
+          <t>PASTOR</t>
+        </is>
+      </c>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>TRANSITAR EM VELOCIDADE SUPERIOR A MAXIMA PERMITIDA EM ATE 20%</t>
+        </is>
+      </c>
+      <c r="L884" t="inlineStr">
+        <is>
+          <t>TC003333</t>
+        </is>
+      </c>
+      <c r="M884" t="inlineStr">
+        <is>
+          <t>2025-07-27 00:00:00</t>
+        </is>
+      </c>
+      <c r="N884" t="inlineStr">
+        <is>
+          <t>10:33</t>
+        </is>
+      </c>
+      <c r="O884" t="inlineStr">
+        <is>
+          <t>19/09/2025</t>
+        </is>
+      </c>
+      <c r="P884" t="inlineStr">
+        <is>
+          <t>BR 226KM 7039 DECRESCENTE</t>
+        </is>
+      </c>
+      <c r="Q884" t="inlineStr">
+        <is>
+          <t>2025-08-13 00:00:00</t>
+        </is>
+      </c>
+      <c r="R884" t="inlineStr">
+        <is>
+          <t>130.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>2277390</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>ABERTA</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>RZH-0C17</t>
+        </is>
+      </c>
+      <c r="E885" t="inlineStr">
+        <is>
+          <t>RN_TODOS</t>
+        </is>
+      </c>
+      <c r="F885" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G885" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>GEOVANI CASTILHO PEREIRA</t>
+        </is>
+      </c>
+      <c r="I885" t="inlineStr">
+        <is>
+          <t>052.934.089-50</t>
+        </is>
+      </c>
+      <c r="J885" t="inlineStr">
+        <is>
+          <t>PASTOR</t>
+        </is>
+      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>TRANSITAR PELA CONTRAMAO DE DIRECAO EM VIA C/ SINALIZACAO DE REGUL SENTIDO UNICO</t>
+        </is>
+      </c>
+      <c r="L885" t="inlineStr">
+        <is>
+          <t>AE00740144</t>
+        </is>
+      </c>
+      <c r="M885" t="inlineStr">
+        <is>
+          <t>2025-05-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="N885" t="inlineStr">
+        <is>
+          <t>14:40</t>
+        </is>
+      </c>
+      <c r="O885" t="inlineStr"/>
+      <c r="P885" t="inlineStr">
+        <is>
+          <t>RUA PEDRO FONSECA FILHO BAIRRO PONTA NEGRA 1415</t>
+        </is>
+      </c>
+      <c r="Q885" t="inlineStr">
+        <is>
+          <t>2025-08-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="R885" t="inlineStr">
+        <is>
+          <t>293.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>2279253</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>ABERTA</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>RQH-8F37</t>
+        </is>
+      </c>
+      <c r="E886" t="inlineStr">
+        <is>
+          <t>RN_TODOS</t>
+        </is>
+      </c>
+      <c r="F886" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G886" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H886" t="inlineStr">
+        <is>
+          <t>CLAUDIO PATRIC SANTOS NOGUEIRA</t>
+        </is>
+      </c>
+      <c r="I886" t="inlineStr">
+        <is>
+          <t>119.660.717-60</t>
+        </is>
+      </c>
+      <c r="J886" t="inlineStr">
+        <is>
+          <t>PASTOR</t>
+        </is>
+      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>TRANSITAR COM O VEICULO EM CANTEIROS CENTRAIS/DIVISORES DE PISTA DE ROLAMENTO</t>
+        </is>
+      </c>
+      <c r="L886" t="inlineStr">
+        <is>
+          <t>A100034764</t>
+        </is>
+      </c>
+      <c r="M886" t="inlineStr">
+        <is>
+          <t>2025-07-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="N886" t="inlineStr">
+        <is>
+          <t>07:55</t>
+        </is>
+      </c>
+      <c r="O886" t="inlineStr">
+        <is>
+          <t>02/10/2025</t>
+        </is>
+      </c>
+      <c r="P886" t="inlineStr">
+        <is>
+          <t>AVENIDA ENGENHEIRO ROBERTO FREIRE CAPIM MACIO</t>
+        </is>
+      </c>
+      <c r="Q886" t="inlineStr">
+        <is>
+          <t>2025-08-25 00:00:00</t>
+        </is>
+      </c>
+      <c r="R886" t="inlineStr">
+        <is>
+          <t>880.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>2279258</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>ABERTA</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>OJW-9B81</t>
+        </is>
+      </c>
+      <c r="E887" t="inlineStr">
+        <is>
+          <t>RN_TODOS</t>
+        </is>
+      </c>
+      <c r="F887" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G887" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H887" t="inlineStr">
+        <is>
+          <t>WELLINGTON SILVA CAMPISTA</t>
+        </is>
+      </c>
+      <c r="I887" t="inlineStr">
+        <is>
+          <t>069.549.847-95</t>
+        </is>
+      </c>
+      <c r="J887" t="inlineStr">
+        <is>
+          <t>PASTOR</t>
+        </is>
+      </c>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>TRANSITAR EM VELOCIDADE SUPERIOR A MAXIMA PERMITIDA EM ATE 20%</t>
+        </is>
+      </c>
+      <c r="L887" t="inlineStr">
+        <is>
+          <t>R 00207160</t>
+        </is>
+      </c>
+      <c r="M887" t="inlineStr">
+        <is>
+          <t>2025-08-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="N887" t="inlineStr">
+        <is>
+          <t>11:22</t>
+        </is>
+      </c>
+      <c r="O887" t="inlineStr">
+        <is>
+          <t>02/10/2025</t>
+        </is>
+      </c>
+      <c r="P887" t="inlineStr">
+        <is>
+          <t>RN 302 KM 3 08 FX1 SENTIDO REDINHA</t>
+        </is>
+      </c>
+      <c r="Q887" t="inlineStr">
+        <is>
+          <t>2025-08-25 00:00:00</t>
+        </is>
+      </c>
+      <c r="R887" t="inlineStr">
+        <is>
+          <t>130.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>2283816</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>ABERTA</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>OJW-9C03</t>
+        </is>
+      </c>
+      <c r="E888" t="inlineStr">
+        <is>
+          <t>RN_TODOS</t>
+        </is>
+      </c>
+      <c r="F888" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G888" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H888" t="inlineStr">
+        <is>
+          <t>JUDEAN CARVALHO DOS SANTOS MARTINS</t>
+        </is>
+      </c>
+      <c r="I888" t="inlineStr">
+        <is>
+          <t>003.443.782-76</t>
+        </is>
+      </c>
+      <c r="J888" t="inlineStr">
+        <is>
+          <t>PASTOR</t>
+        </is>
+      </c>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>ESTACIONAR EM GUIA DE CALCADA REBAIXADA DESTINADA A ENTRADA/SAIDA DE VEICULOS</t>
+        </is>
+      </c>
+      <c r="L888" t="inlineStr">
+        <is>
+          <t>A 30014770</t>
+        </is>
+      </c>
+      <c r="M888" t="inlineStr">
+        <is>
+          <t>2025-05-19 00:00:00</t>
+        </is>
+      </c>
+      <c r="N888" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="O888" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
+      <c r="P888" t="inlineStr">
+        <is>
+          <t>RUA MANOEL FELIPE N287</t>
+        </is>
+      </c>
+      <c r="Q888" t="inlineStr">
+        <is>
+          <t>2025-09-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="R888" t="inlineStr">
+        <is>
+          <t>130.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>2283819</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>ABERTA</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>RGN-6D86</t>
+        </is>
+      </c>
+      <c r="E889" t="inlineStr">
+        <is>
+          <t>RN_TODOS</t>
+        </is>
+      </c>
+      <c r="F889" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G889" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H889" t="inlineStr">
+        <is>
+          <t>MARCELO ANTONIO LIMA SANTOS</t>
+        </is>
+      </c>
+      <c r="I889" t="inlineStr">
+        <is>
+          <t>016.491.495-14</t>
+        </is>
+      </c>
+      <c r="J889" t="inlineStr">
+        <is>
+          <t>PASTOR</t>
+        </is>
+      </c>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>AVANCAR O SINAL VERMELHO DO SEMAFORO - FISCALIZACAO ELETRONICA</t>
+        </is>
+      </c>
+      <c r="L889" t="inlineStr">
+        <is>
+          <t>S044593384</t>
+        </is>
+      </c>
+      <c r="M889" t="inlineStr">
+        <is>
+          <t>2025-04-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="N889" t="inlineStr">
+        <is>
+          <t>10:31</t>
+        </is>
+      </c>
+      <c r="O889" t="inlineStr">
+        <is>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="P889" t="inlineStr">
+        <is>
+          <t>BR110 KM 48 35 MOSSORO RN</t>
+        </is>
+      </c>
+      <c r="Q889" t="inlineStr">
+        <is>
+          <t>2025-09-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="R889" t="inlineStr">
+        <is>
+          <t>293.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>2283822</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>ABERTA</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>RGM-3E60</t>
+        </is>
+      </c>
+      <c r="E890" t="inlineStr">
+        <is>
+          <t>RN_TODOS</t>
+        </is>
+      </c>
+      <c r="F890" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G890" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H890" t="inlineStr">
+        <is>
+          <t>RICELLI ALEXANDRE ANTUNES</t>
+        </is>
+      </c>
+      <c r="I890" t="inlineStr">
+        <is>
+          <t>285.535.838-80</t>
+        </is>
+      </c>
+      <c r="J890" t="inlineStr">
+        <is>
+          <t>PASTOR</t>
+        </is>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>TRANSITAR EM VELOCIDADE SUPERIOR A MAXIMA PERMITIDA EM ATE 20%</t>
+        </is>
+      </c>
+      <c r="L890" t="inlineStr">
+        <is>
+          <t>S046517566</t>
+        </is>
+      </c>
+      <c r="M890" t="inlineStr">
+        <is>
+          <t>2025-07-29 00:00:00</t>
+        </is>
+      </c>
+      <c r="N890" t="inlineStr">
+        <is>
+          <t>17:18</t>
+        </is>
+      </c>
+      <c r="O890" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="P890" t="inlineStr">
+        <is>
+          <t>BR 101 KM 100</t>
+        </is>
+      </c>
+      <c r="Q890" t="inlineStr">
+        <is>
+          <t>2025-09-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="R890" t="inlineStr">
+        <is>
+          <t>130.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>2286170</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>ABERTA</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>RQA-0D48</t>
+        </is>
+      </c>
+      <c r="E891" t="inlineStr">
+        <is>
+          <t>CAPITAL</t>
+        </is>
+      </c>
+      <c r="F891" t="inlineStr">
+        <is>
+          <t>CIDADE DA ESPERANCA</t>
+        </is>
+      </c>
+      <c r="G891" t="inlineStr">
+        <is>
+          <t>CIDADE ESPERANCA</t>
+        </is>
+      </c>
+      <c r="H891" t="inlineStr">
+        <is>
+          <t>OSVALDO PINTO JUNIOR</t>
+        </is>
+      </c>
+      <c r="I891" t="inlineStr"/>
+      <c r="J891" t="inlineStr">
+        <is>
+          <t>NÃO INFORMADO</t>
+        </is>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>ESTACIONAR AO LADO DE OUTRO VEICULO EM FILA DUPLA</t>
+        </is>
+      </c>
+      <c r="L891" t="inlineStr">
+        <is>
+          <t>AE00783197</t>
+        </is>
+      </c>
+      <c r="M891" t="inlineStr">
+        <is>
+          <t>2025-08-29 00:00:00</t>
+        </is>
+      </c>
+      <c r="N891" t="inlineStr">
+        <is>
+          <t>14:29</t>
+        </is>
+      </c>
+      <c r="O891" t="inlineStr">
+        <is>
+          <t>23/10/2025</t>
+        </is>
+      </c>
+      <c r="P891" t="inlineStr">
+        <is>
+          <t>RUA PRESIDENTE JOSE BENTO DE FRENTE A ELETRONCA TOTAL ALECRIM</t>
+        </is>
+      </c>
+      <c r="Q891" t="inlineStr">
+        <is>
+          <t>2025-09-11 00:00:00</t>
+        </is>
+      </c>
+      <c r="R891" t="inlineStr">
+        <is>
+          <t>195.23</t>
         </is>
       </c>
     </row>
